--- a/downloaded_files/CMPS301_Tutorial-35531.xlsx
+++ b/downloaded_files/CMPS301_Tutorial-35531.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,15 +130,6 @@
   </x:si>
   <x:si>
     <x:t>Mario Emad Saleh Fouad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1162125</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مايكل توفيق حنا سليمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Michael Tawfik Hanna Soliman</x:t>
   </x:si>
   <x:si>
     <x:t>1220272</x:t>
@@ -317,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1060,7 +1051,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45916.0310148958</x:v>
+        <x:v>45906.6647741088</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1083,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6647741088</x:v>
+        <x:v>45909.7206131597</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1115,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.7206131597</x:v>
+        <x:v>45909.4674812153</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1147,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4674812153</x:v>
+        <x:v>45907.456287581</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1179,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.456287581</x:v>
+        <x:v>45906.6650957523</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1211,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6650957523</x:v>
+        <x:v>45906.6650695255</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1243,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6650695255</x:v>
+        <x:v>45906.6660025116</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1269,38 +1260,6 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:20">
-      <x:c r="A20" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E20" s="3">
-        <x:v>45906.6660025116</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s"/>
-      <x:c r="G20" s="2" t="s"/>
-      <x:c r="H20" s="2" t="s"/>
-      <x:c r="I20" s="2" t="s"/>
-      <x:c r="J20" s="2" t="s"/>
-      <x:c r="K20" s="2" t="s"/>
-      <x:c r="L20" s="2" t="s"/>
-      <x:c r="M20" s="2" t="s"/>
-      <x:c r="N20" s="2" t="s"/>
-      <x:c r="O20" s="2" t="s"/>
-      <x:c r="P20" s="2" t="s"/>
-      <x:c r="Q20" s="2" t="s"/>
-      <x:c r="R20" s="2" t="s"/>
-      <x:c r="S20" s="2" t="s"/>
-      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS301_Tutorial-35531.xlsx
+++ b/downloaded_files/CMPS301_Tutorial-35531.xlsx
@@ -114,13 +114,13 @@
     <x:t>Omar Gamal Sani Ellethy</x:t>
   </x:si>
   <x:si>
-    <x:t>4230161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فراس اشرف محمد عبدالرحيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fras Ashraf Mohamed</x:t>
+    <x:t>1161335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر عصام الدين عبدالرؤوف محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Essam El Din Abdel Raouf</x:t>
   </x:si>
   <x:si>
     <x:t>1210158</x:t>
@@ -618,7 +618,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="35.280625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="57.050625000000004" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -987,7 +987,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6657920949</x:v>
+        <x:v>45927.5743428241</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>

--- a/downloaded_files/CMPS301_Tutorial-35531.xlsx
+++ b/downloaded_files/CMPS301_Tutorial-35531.xlsx
@@ -138,7 +138,7 @@
     <x:t>محمد احمد محمود احمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed Mahmoud Alatar</x:t>
+    <x:t>Mohammed Ahmed Mahmoud Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1220195</x:t>
@@ -174,7 +174,7 @@
     <x:t>نور محمد السيد عبدالله خليل طنطاوي</x:t>
   </x:si>
   <x:si>
-    <x:t>NOOR MOHAMED ELSAYED ABDALLAH KHALIL TANTAWY</x:t>
+    <x:t>Noor Mohamed Elsayed Abdallah Khalil Tantawy</x:t>
   </x:si>
   <x:si>
     <x:t>1220291</x:t>
